--- a/documentation/Risks.xlsx
+++ b/documentation/Risks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Risk Name</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Everyone according to who it affects</t>
+  </si>
+  <si>
+    <t>Data Security laws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone </t>
+  </si>
+  <si>
+    <t>With the current european general data potection regulation it can be next to impossible to cope with it running the website on a private webserver</t>
+  </si>
+  <si>
+    <t>One mitigation would be to negotiate with Ms. Berkling that she will install it locally on her computer for grading</t>
   </si>
 </sst>
 </file>
@@ -491,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E29" si="0">C2*D2</f>
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -567,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -591,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -615,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -639,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -663,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>1.3499999999999999</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -687,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -711,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="3">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -721,17 +733,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
       <c r="E10" s="3">
-        <f>C10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -739,7 +763,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
@@ -751,7 +775,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
@@ -763,7 +787,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
@@ -775,7 +799,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
@@ -787,7 +811,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
@@ -799,7 +823,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
@@ -811,7 +835,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
@@ -823,7 +847,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
@@ -835,7 +859,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
@@ -847,7 +871,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
@@ -859,7 +883,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
@@ -871,7 +895,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
@@ -883,7 +907,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
@@ -895,7 +919,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
@@ -907,7 +931,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
@@ -919,7 +943,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
@@ -931,7 +955,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
@@ -943,7 +967,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="4"/>
@@ -955,7 +979,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="3">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="4"/>
